--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Aortic dissection_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Aortic dissection_spec_overall.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pain worse when lying down (positional) is present.</t>
+          <t>Pain is reproducible with arm movements is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Positional pain is often associated with aortic dissection, as changes in body position can affect the aorta and exacerbate pain.</t>
+          <t>Pain that is reproducible with arm movements is atypical for aortic dissection, but its presence can sometimes be associated with musculoskeletal causes, which can coexist with aortic dissection.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Shortness of breath is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chronic heartburn is more indicative of gastroesophageal reflux disease (GERD) rather than aortic dissection, which typically presents acutely.</t>
+          <t>Shortness of breath is a common symptom in aortic dissection due to potential heart failure or pleural effusion, and its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Reports pain location is behind sternum, middle of chest is present.</t>
+          <t>Tightness (character of pain) is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chest pain located behind the sternum is a classic symptom of aortic dissection, indicating potential involvement of the aorta.</t>
+          <t>A sensation of tightness in the chest can be associated with aortic dissection, as it may reflect the severe nature of the pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Diaphoresis is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If antacids are ineffective, it suggests a non-cardiac cause of chest pain, such as GERD, rather than aortic dissection.</t>
+          <t>Diaphoresis is a common symptom in aortic dissection due to the acute stress response, and its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tightness (character of pain) is present.</t>
+          <t>Reports pain location is behind sternum, middle of chest is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tightness in the chest can be indicative of aortic dissection, as patients often describe the pain in this manner.</t>
+          <t>Pain located behind the sternum is a common presentation in aortic dissection, as the dissection often involves the ascending aorta.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Radiation of pain to the back is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Weight loss is more commonly associated with chronic gastrointestinal issues rather than acute aortic dissection.</t>
+          <t>Back pain is a classic symptom of aortic dissection, especially when the descending aorta is involved, and its absence is a strong negative indicator.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present.</t>
+          <t>Radiation of pain to the back is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not classic, chest pain associated with eating can occur in aortic dissection, especially if the dissection affects the esophagus or surrounding structures.</t>
+          <t>While the absence of back pain radiation is not supportive, the presence of chest pain alone can still be consistent with aortic dissection.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Current heartburn is present.</t>
+          <t>Nausea and/or vomiting is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Current heartburn suggests a gastrointestinal issue rather than aortic dissection, which typically presents with acute symptoms.</t>
+          <t>Nausea and vomiting can occur in aortic dissection due to visceral involvement or pain, and their absence reduces the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Onset of chest pain associated with eating food is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dysphagia can occur in aortic dissection if the dissection affects the esophagus or surrounding structures, leading to difficulty in swallowing.</t>
+          <t>While not classic for aortic dissection, chest pain onset with eating can sometimes be seen in cases where the dissection affects the esophagus or nearby structures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Pleuritic character of the pain is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While dysphagia can occur in aortic dissection, it is more commonly associated with esophageal conditions, which are less acute than dissection.</t>
+          <t>While not specific, pleuritic pain can occur in aortic dissection due to pleural involvement, and its absence is slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -611,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker often used to treat hypertension, which is a significant risk factor for aortic dissection.</t>
+          <t>While aortic dissection is more common in males, the presence of a female patient does not strongly argue against it, as it can still occur in females.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Diagnosed hypertension is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder can be associated with various cardiovascular issues; its absence may suggest a lower risk for conditions like aortic dissection.</t>
+          <t>Hypertension is a major risk factor for aortic dissection, and its absence reduces the likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>While aortic dissection is more common in males, females can still be at risk, especially in the context of other risk factors.</t>
+          <t>Aortic dissection is more common in middle-aged individuals, which supports the possibility of this diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Previously diagnosed Coronary Artery Disease is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is a known risk factor for cardiovascular diseases, including aortic dissection; its absence supports a lower likelihood of the condition.</t>
+          <t>Coronary artery disease is often associated with aortic dissection, and its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aortic dissection is more prevalent in middle-aged individuals, making this demographic a relevant factor.</t>
+          <t>Amlodipine is used to treat hypertension, which is a risk factor for aortic dissection, suggesting a possible history of hypertension.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Previously diagnosed Peripheral Artery Disease is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation exposure is a risk factor for vascular diseases, including aortic dissection; its absence suggests a lower risk.</t>
+          <t>Peripheral artery disease is a risk factor for aortic dissection, and its absence reduces the likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Absence of recent medication changes.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While this finding is not directly supportive of aortic dissection, it indicates that the patient may not have a common risk factor, which could be relevant in a broader context.</t>
+          <t>Stable medication regimen may indicate controlled risk factors, but does not rule out aortic dissection.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed Coronary Artery Disease is absent</t>
+          <t>Prior myocardial infarction is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease indicates a lower overall cardiovascular risk, which may reduce the likelihood of aortic dissection.</t>
+          <t>A history of myocardial infarction can be associated with aortic dissection, and its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of prior myocardial infarction</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to hypertension, the absence of a prior myocardial infarction suggests a lower cardiovascular risk profile, which may indirectly relate to the likelihood of aortic dissection.</t>
+          <t>While hypertension is a risk factor, its absence does not completely rule out aortic dissection, as it can occur without it.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diagnosed hypertension is absent</t>
+          <t>Type 2 diabetes is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension is a major risk factor for aortic dissection; its absence strongly supports that the condition is less likely.</t>
+          <t>Diabetes is a risk factor for cardiovascular diseases, including aortic dissection, and its absence reduces the likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
@@ -762,66 +764,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present.</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of myocardial infarction suggests a genetic predisposition to cardiovascular diseases, which can include aortic dissection.</t>
+          <t>Tobacco use, even if prior, is a known risk factor for aortic dissection due to its association with hypertension and vascular damage.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of recent travel may indicate a lower likelihood of certain stressors or conditions that could precipitate an aortic dissection, such as long-haul flights or travel-related stress.</t>
+          <t>The absence of current tobacco use reduces the risk of hypertension and vascular damage, which are risk factors for aortic dissection.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Family history of myocardial infarction in father is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recent social stress can contribute to hypertension and other cardiovascular issues, increasing the risk of aortic dissection.</t>
+          <t>A family history of cardiovascular events like myocardial infarction can indicate a genetic predisposition to vascular diseases, including aortic dissection.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer suggests a lower genetic predisposition to certain diseases, which may include conditions that could lead to aortic dissection.</t>
+          <t>The absence of alcohol use reduces the risk of hypertension and other cardiovascular issues that could lead to aortic dissection.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tobacco use is a known risk factor for cardiovascular diseases, including aortic dissection, due to its effects on vascular health.</t>
+          <t>Social stress can contribute to hypertension, which is a risk factor for aortic dissection.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic causes of aortic dissection, such as surgical interventions.</t>
+          <t>While not directly related, the absence of a family history of cancer does not contribute to the risk of aortic dissection.</t>
         </is>
       </c>
     </row>
@@ -833,39 +835,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While the absence of rheumatoid arthritis does not directly support aortic dissection, it indicates that there may be fewer confounding autoimmune conditions that could complicate the diagnosis.</t>
+          <t>While not directly related, the absence of autoimmune conditions like Rheumatoid Arthritis, which can affect vascular health, does not rule out aortic dissection.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of gestational complications suggests a lower risk profile for vascular issues that could be associated with aortic dissection.</t>
+          <t>The absence of recent medical procedures reduces the risk of iatrogenic causes of aortic dissection.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of alcohol use may suggest a lower risk profile for cardiovascular diseases, but it does not directly support aortic dissection; however, it does not detract from the likelihood either.</t>
+          <t>The absence of recent travel does not directly impact the likelihood of aortic dissection, but it eliminates potential stressors or changes in routine that could exacerbate underlying conditions.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use indicates a potentially lower risk for cardiovascular diseases, including aortic dissection, compared to active smokers.</t>
+          <t>The absence of gestational complications suggests no history of pregnancy-related hypertension, which could be a risk factor for aortic dissection.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Aortic dissection</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Aortic dissection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Aortic dissection</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Aortic dissection</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Telangiectasias on exam is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Telangiectasias are not directly related to aortic dissection but can be associated with connective tissue disorders, which may predispose to aortic dissection.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>High blood pressure when checked is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hypertension is a common risk factor for aortic dissection, and its absence reduces the likelihood of this diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Weight loss on vitals is present.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Weight loss is not a classic sign of aortic dissection but can be associated with chronic conditions that may predispose to vascular issues.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Weakness on exam is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Neurological deficits can occur with aortic dissection if there is involvement of arteries supplying the brain or spinal cord, so their absence is against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None of the other findings strongly support aortic dissection.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of other findings that are more specific to aortic dissection limits the supportive evidence.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Neck masses or fullness observed is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Aortic dissection can cause a mediastinal mass effect, and the absence of neck fullness is against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>None of the other findings strongly support aortic dissection.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of other findings that are more specific to aortic dissection limits the supportive evidence.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hoarse voice observed is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hoarseness can occur if the recurrent laryngeal nerve is affected by aortic dissection, so its absence is against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>None of the other findings strongly support aortic dissection.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of other findings that are more specific to aortic dissection limits the supportive evidence.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cough observed is absent.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A cough can occur if there is compression of the trachea or bronchi, so its absence is against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Aortic dissection</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Aortic dissection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Aortic dissection</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Aortic dissection</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is a risk factor for atherosclerosis, which can contribute to conditions like aortic dissection.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A widened mediastinum on CXR is a classic sign of aortic dissection, so its absence is strong evidence against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly support aortic dissection, but it does not rule it out either.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT does not directly argue against aortic dissection, but it is not supportive either.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS is not directly related to aortic dissection, but it does not contradict the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS is not related to aortic dissection, but it does not support the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT does not directly support aortic dissection, but it does not rule it out either.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly argue against aortic dissection, but it is not supportive either.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>While the absence of a widened mediastinum on CXR does not support aortic dissection, it is not definitive against it.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>While hyperlipidemia is a risk factor for cardiovascular disease, it is not specific to aortic dissection and does not strongly argue against it.</t>
         </is>
       </c>
     </row>
